--- a/Branches-id.xlsx
+++ b/Branches-id.xlsx
@@ -1,40 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HR-PC\Desktop\analysis-scripts\important-excel-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HR-PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC54E20B-6131-459C-BCAF-A41F0524D78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37C978A5-9847-4267-8691-0058ADDC2F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7815" yWindow="5220" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$36</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -145,6 +131,15 @@
   </si>
   <si>
     <t>فرع مستودعات حائل</t>
+  </si>
+  <si>
+    <t>فرع بريدة 1</t>
+  </si>
+  <si>
+    <t>فرع حائل 2</t>
+  </si>
+  <si>
+    <t>فرع راحتي خميس مشيط 2</t>
   </si>
 </sst>
 </file>
@@ -162,10 +157,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -268,7 +260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,27 +292,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,24 +326,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -546,15 +502,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="60.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -845,9 +802,31 @@
         <v>36</v>
       </c>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>182</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>183</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>196</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B36" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>